--- a/results/09-2024/beta/comparison-09-2024.xlsx
+++ b/results/09-2024/beta/comparison-09-2024.xlsx
@@ -688,28 +688,28 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="n">
-        <v>-0.1498</v>
+        <v>-0.1097</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0675</v>
+        <v>0.0706</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.337</v>
+        <v>-0.3307</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.3164</v>
+        <v>-0.3103</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.1506</v>
+        <v>-0.1615</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2036</v>
+        <v>-0.2108</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0948</v>
+        <v>0.0946</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0943</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="4">
@@ -912,7 +912,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>-0.0644</v>
+        <v>-0.064</v>
       </c>
       <c r="S7" t="n">
         <v>-0.0277</v>
@@ -1136,16 +1136,16 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>-0.0491</v>
+        <v>-0.0533</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0473</v>
+        <v>-0.0476</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0401</v>
+        <v>-0.0406</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0271</v>
+        <v>-0.0276</v>
       </c>
       <c r="V11" t="n">
         <v>-0.038</v>
@@ -1248,28 +1248,28 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="n">
-        <v>0.1262</v>
+        <v>0.1705</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0513</v>
+        <v>0.06</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0261</v>
+        <v>0.0367</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0057</v>
+        <v>0.0044</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0186</v>
+        <v>-0.0188</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0047</v>
+        <v>0.0046</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0274</v>
+        <v>0.0272</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0454</v>
+        <v>0.0453</v>
       </c>
     </row>
     <row r="14">
@@ -1360,16 +1360,16 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="n">
-        <v>0.3363</v>
+        <v>0.2695</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2552</v>
+        <v>0.2508</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0646</v>
+        <v>-0.0725</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0602</v>
+        <v>-0.0672</v>
       </c>
       <c r="V15" t="n">
         <v>-0.0237</v>
@@ -1472,7 +1472,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>-0.0329</v>
+        <v>-0.0326</v>
       </c>
       <c r="S17" t="n">
         <v>-0.0212</v>
@@ -1481,7 +1481,7 @@
         <v>-0.0143</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0131</v>
+        <v>-0.013</v>
       </c>
       <c r="V17" t="n">
         <v>-0.0133</v>
@@ -1584,13 +1584,13 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="n">
-        <v>-0.0424</v>
+        <v>-0.0422</v>
       </c>
       <c r="S19" t="n">
         <v>-0.0253</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0102</v>
+        <v>-0.0101</v>
       </c>
       <c r="U19" t="n">
         <v>-0.0097</v>
@@ -1808,16 +1808,16 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="n">
-        <v>0.1216</v>
+        <v>0.1691</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1355</v>
+        <v>0.1387</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0332</v>
+        <v>-0.0274</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0868</v>
+        <v>-0.0817</v>
       </c>
       <c r="V23" t="n">
         <v>-0.083</v>
@@ -1920,7 +1920,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="n">
-        <v>-0.0538</v>
+        <v>-0.0535</v>
       </c>
       <c r="S25" t="n">
         <v>-0.0292</v>
@@ -2032,16 +2032,16 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="n">
-        <v>-0.2948</v>
+        <v>-0.2924</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.1389</v>
+        <v>-0.1388</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0727</v>
+        <v>-0.0725</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.1078</v>
+        <v>-0.1076</v>
       </c>
       <c r="V27" t="n">
         <v>-0.0848</v>
@@ -2144,28 +2144,28 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>-0.0003</v>
+        <v>0.0355</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.0002</v>
+        <v>-0.0058</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-0.0106</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-0.007</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="30">
@@ -2256,28 +2256,28 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="n">
-        <v>-0.1934</v>
+        <v>-0.1834</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0987</v>
+        <v>-0.0879</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.2118</v>
+        <v>-0.1994</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.3368</v>
+        <v>-0.3229</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.2638</v>
+        <v>-0.2626</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.3607</v>
+        <v>-0.3621</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.277</v>
+        <v>-0.2801</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.198</v>
+        <v>-0.203</v>
       </c>
     </row>
     <row r="32">
@@ -2368,28 +2368,28 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="n">
-        <v>-0.5195</v>
+        <v>-0.4794</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.0242</v>
+        <v>-0.0211</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.4188</v>
+        <v>-0.4125</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.3848</v>
+        <v>-0.3786</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.2272</v>
+        <v>-0.2381</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.4119</v>
+        <v>-0.4191</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.0843</v>
+        <v>-0.0845</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.0684</v>
+        <v>-0.0703</v>
       </c>
     </row>
     <row r="34">
@@ -2592,13 +2592,13 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="n">
-        <v>-0.097</v>
+        <v>-0.0963</v>
       </c>
       <c r="S37" t="n">
         <v>-0.0958</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.094</v>
+        <v>-0.0939</v>
       </c>
       <c r="U37" t="n">
         <v>-0.092</v>
@@ -2928,16 +2928,16 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>-0.0092</v>
+        <v>-0.0108</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0131</v>
+        <v>0.0129</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0064</v>
+        <v>0.0062</v>
       </c>
       <c r="V43" t="n">
         <v>0.0064</v>
@@ -3040,22 +3040,22 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="n">
-        <v>0.0088</v>
+        <v>0.0182</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1262</v>
+        <v>0.1296</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.0026</v>
+        <v>0.0011</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.0296</v>
+        <v>-0.0261</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.0225</v>
+        <v>-0.0226</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.0172</v>
+        <v>-0.0173</v>
       </c>
       <c r="X45" t="n">
         <v>-0.0122</v>
@@ -3152,16 +3152,16 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="n">
-        <v>-0.0105</v>
+        <v>-0.0465</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0064</v>
+        <v>-0.0088</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.0175</v>
+        <v>-0.0218</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0249</v>
+        <v>-0.0287</v>
       </c>
       <c r="V47" t="n">
         <v>-0.0136</v>
@@ -3376,16 +3376,16 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="n">
-        <v>0.0322</v>
+        <v>0.037</v>
       </c>
       <c r="S51" t="n">
-        <v>0.0343</v>
+        <v>0.0347</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0305</v>
+        <v>0.0311</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0292</v>
+        <v>0.0297</v>
       </c>
       <c r="V51" t="n">
         <v>0.0112</v>
@@ -3494,10 +3494,10 @@
         <v>-0.0004</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.0007</v>
+        <v>-0.0006</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="V53" t="n">
         <v>-0.0003</v>
@@ -3600,13 +3600,13 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="n">
-        <v>-0.0293</v>
+        <v>-0.0285</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.0273</v>
+        <v>-0.0272</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.028</v>
+        <v>-0.0279</v>
       </c>
       <c r="U55" t="n">
         <v>-0.0272</v>
@@ -3712,16 +3712,16 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="n">
-        <v>-0.0908</v>
+        <v>-0.0886</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.1277</v>
+        <v>-0.1276</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0273</v>
+        <v>0.0275</v>
       </c>
       <c r="U57" t="n">
-        <v>0.1823</v>
+        <v>0.1825</v>
       </c>
       <c r="V57" t="n">
         <v>0.1819</v>
@@ -3824,16 +3824,16 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59" t="n">
-        <v>0.1769</v>
+        <v>0.0702</v>
       </c>
       <c r="S59" t="n">
-        <v>0.0862</v>
+        <v>0.0792</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.0818</v>
+        <v>-0.0945</v>
       </c>
       <c r="U59" t="n">
-        <v>0.0766</v>
+        <v>0.0652</v>
       </c>
       <c r="V59" t="n">
         <v>0.113</v>
@@ -3936,28 +3936,28 @@
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="n">
-        <v>-0.3266</v>
+        <v>-0.1799</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.0187</v>
+        <v>-0.0085</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.2553</v>
+        <v>-0.2362</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.393</v>
+        <v>-0.3755</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.2637</v>
+        <v>-0.2745</v>
       </c>
       <c r="W61" t="n">
-        <v>-0.2178</v>
+        <v>-0.225</v>
       </c>
       <c r="X61" t="n">
-        <v>-0.1482</v>
+        <v>-0.1485</v>
       </c>
       <c r="Y61" t="n">
-        <v>-0.115</v>
+        <v>-0.1169</v>
       </c>
     </row>
     <row r="62">
@@ -4048,28 +4048,28 @@
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63" t="n">
-        <v>-0.0479</v>
+        <v>-0.0078</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0638</v>
+        <v>-0.0607</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.105</v>
+        <v>-0.0987</v>
       </c>
       <c r="U63" t="n">
-        <v>-0.0207</v>
+        <v>-0.0145</v>
       </c>
       <c r="V63" t="n">
-        <v>0.0202</v>
+        <v>0.0094</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0491</v>
+        <v>0.0419</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0025</v>
+        <v>0.0022</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0105</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="64">
@@ -4272,13 +4272,13 @@
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67" t="n">
-        <v>0.0008</v>
+        <v>0.0012</v>
       </c>
       <c r="S67" t="n">
         <v>0.0004</v>
       </c>
       <c r="T67" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="U67" t="n">
         <v>0.0003</v>
@@ -4496,16 +4496,16 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="n">
-        <v>0.0217</v>
+        <v>0.0174</v>
       </c>
       <c r="S71" t="n">
-        <v>0.016</v>
+        <v>0.0158</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0136</v>
+        <v>0.0131</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0032</v>
+        <v>0.0028</v>
       </c>
       <c r="V71" t="n">
         <v>-0.0013</v>
@@ -4608,28 +4608,28 @@
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73" t="n">
-        <v>0.0469</v>
+        <v>0.0912</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0155</v>
+        <v>0.0243</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.0151</v>
+        <v>-0.0044</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.0096</v>
+        <v>0.0004</v>
       </c>
       <c r="V73" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0068</v>
+        <v>0.0066</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0133</v>
+        <v>0.0132</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0158</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="74">
@@ -4720,16 +4720,16 @@
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75" t="n">
-        <v>0.0942</v>
+        <v>0.0274</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0975</v>
+        <v>0.0931</v>
       </c>
       <c r="T75" t="n">
-        <v>0.0611</v>
+        <v>0.0532</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0617</v>
+        <v>0.0547</v>
       </c>
       <c r="V75" t="n">
         <v>0.0642</v>
@@ -4832,7 +4832,7 @@
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77" t="n">
-        <v>0.0004</v>
+        <v>0.0007</v>
       </c>
       <c r="S77" t="n">
         <v>0.0003</v>
@@ -4944,7 +4944,7 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79" t="n">
-        <v>0.0005</v>
+        <v>0.0008</v>
       </c>
       <c r="S79" t="n">
         <v>0.0003</v>
@@ -5168,16 +5168,16 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83" t="n">
-        <v>-0.011</v>
+        <v>0.0365</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.0085</v>
+        <v>-0.0053</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0067</v>
+        <v>-0.0009</v>
       </c>
       <c r="U83" t="n">
-        <v>-0.0103</v>
+        <v>-0.0051</v>
       </c>
       <c r="V83" t="n">
         <v>-0.01</v>
@@ -5280,7 +5280,7 @@
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85" t="n">
-        <v>0.0007</v>
+        <v>0.001</v>
       </c>
       <c r="S85" t="n">
         <v>0.0004</v>
@@ -5392,16 +5392,16 @@
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87" t="n">
-        <v>-0.0368</v>
+        <v>-0.0343</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0364</v>
+        <v>-0.0363</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.0164</v>
+        <v>-0.0162</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0152</v>
+        <v>-0.0151</v>
       </c>
       <c r="V87" t="n">
         <v>-0.0149</v>
@@ -5504,28 +5504,28 @@
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>0.0358</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>-0.0021</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>-0.0106</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>-0.007</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="90">
@@ -5616,28 +5616,28 @@
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91" t="n">
-        <v>0.0334</v>
+        <v>0.0434</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0945</v>
+        <v>0.1053</v>
       </c>
       <c r="T91" t="n">
-        <v>0.0126</v>
+        <v>0.025</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.0556</v>
+        <v>-0.0417</v>
       </c>
       <c r="V91" t="n">
-        <v>-0.0405</v>
+        <v>-0.0393</v>
       </c>
       <c r="W91" t="n">
-        <v>-0.0115</v>
+        <v>-0.0129</v>
       </c>
       <c r="X91" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.0244</v>
+        <v>0.0193</v>
       </c>
     </row>
     <row r="92">
@@ -5728,28 +5728,28 @@
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93" t="n">
-        <v>-0.0386</v>
+        <v>0.0015</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.0616</v>
+        <v>-0.0585</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.1031</v>
+        <v>-0.0968</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.0191</v>
+        <v>-0.0129</v>
       </c>
       <c r="V93" t="n">
-        <v>0.022</v>
+        <v>0.0111</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0543</v>
+        <v>0.0471</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0069</v>
+        <v>0.0066</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0145</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="94">
@@ -5952,10 +5952,10 @@
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97" t="n">
-        <v>0.0012</v>
+        <v>0.0019</v>
       </c>
       <c r="S97" t="n">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="T97" t="n">
         <v>0.0012</v>
@@ -6288,16 +6288,16 @@
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103" t="n">
-        <v>0.0061</v>
+        <v>0.0044</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0105</v>
+        <v>0.0103</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.0041</v>
+        <v>-0.0043</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0085</v>
+        <v>0.0084</v>
       </c>
       <c r="V103" t="n">
         <v>0.0078</v>
@@ -6400,28 +6400,28 @@
       <c r="P105"/>
       <c r="Q105"/>
       <c r="R105" t="n">
-        <v>-0.0499</v>
+        <v>-0.0406</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.0561</v>
+        <v>-0.0528</v>
       </c>
       <c r="T105" t="n">
-        <v>-0.0237</v>
+        <v>-0.0201</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.0046</v>
+        <v>-0.001</v>
       </c>
       <c r="V105" t="n">
-        <v>0.001</v>
+        <v>0.0009</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0036</v>
+        <v>0.0035</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0061</v>
+        <v>0.006</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0067</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="106">
@@ -6512,16 +6512,16 @@
       <c r="P107"/>
       <c r="Q107"/>
       <c r="R107" t="n">
-        <v>-0.0697</v>
+        <v>-0.1058</v>
       </c>
       <c r="S107" t="n">
-        <v>-0.0482</v>
+        <v>-0.0506</v>
       </c>
       <c r="T107" t="n">
-        <v>-0.0491</v>
+        <v>-0.0534</v>
       </c>
       <c r="U107" t="n">
-        <v>0.0135</v>
+        <v>0.0097</v>
       </c>
       <c r="V107" t="n">
         <v>-0.0055</v>
@@ -6736,16 +6736,16 @@
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111" t="n">
-        <v>-0.0247</v>
+        <v>-0.02</v>
       </c>
       <c r="S111" t="n">
-        <v>-0.0328</v>
+        <v>-0.0325</v>
       </c>
       <c r="T111" t="n">
-        <v>-0.0415</v>
+        <v>-0.0409</v>
       </c>
       <c r="U111" t="n">
-        <v>-0.0434</v>
+        <v>-0.0429</v>
       </c>
       <c r="V111" t="n">
         <v>-0.0038</v>
@@ -6960,13 +6960,13 @@
       <c r="P115"/>
       <c r="Q115"/>
       <c r="R115" t="n">
-        <v>-0.0295</v>
+        <v>-0.0287</v>
       </c>
       <c r="S115" t="n">
         <v>-0.0254</v>
       </c>
       <c r="T115" t="n">
-        <v>-0.025</v>
+        <v>-0.0249</v>
       </c>
       <c r="U115" t="n">
         <v>-0.0243</v>
@@ -7072,16 +7072,16 @@
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117" t="n">
-        <v>0.0012</v>
+        <v>0.0033</v>
       </c>
       <c r="S117" t="n">
-        <v>0.0016</v>
+        <v>0.0018</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.0003</v>
+        <v>-0.0001</v>
       </c>
       <c r="U117" t="n">
-        <v>-0.0023</v>
+        <v>-0.0021</v>
       </c>
       <c r="V117" t="n">
         <v>-0.0023</v>
@@ -7184,16 +7184,16 @@
       <c r="P119"/>
       <c r="Q119"/>
       <c r="R119" t="n">
-        <v>0.0534</v>
+        <v>-0.0532</v>
       </c>
       <c r="S119" t="n">
-        <v>0.0774</v>
+        <v>0.0703</v>
       </c>
       <c r="T119" t="n">
-        <v>0.0211</v>
+        <v>0.0084</v>
       </c>
       <c r="U119" t="n">
-        <v>0.0847</v>
+        <v>0.0734</v>
       </c>
       <c r="V119" t="n">
         <v>0.063</v>
@@ -7296,28 +7296,28 @@
       <c r="P121"/>
       <c r="Q121"/>
       <c r="R121" t="n">
-        <v>-0.1014</v>
+        <v>0.0454</v>
       </c>
       <c r="S121" t="n">
-        <v>-0.1412</v>
+        <v>-0.131</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.1262</v>
+        <v>-0.1072</v>
       </c>
       <c r="U121" t="n">
-        <v>-0.1053</v>
+        <v>-0.0878</v>
       </c>
       <c r="V121" t="n">
-        <v>-0.0427</v>
+        <v>-0.0536</v>
       </c>
       <c r="W121" t="n">
-        <v>-0.0252</v>
+        <v>-0.0324</v>
       </c>
       <c r="X121" t="n">
-        <v>-0.0018</v>
+        <v>-0.0021</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.0031</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="122">
